--- a/src/main/resources/excelTemplate/student_add_template.xlsx
+++ b/src/main/resources/excelTemplate/student_add_template.xlsx
@@ -19,25 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Бактяп Иван Алексендрович1</t>
-  </si>
-  <si>
-    <t>Бактяп Иван Алексендрович2</t>
-  </si>
-  <si>
-    <t>Бактяп Иван Алексендрович3</t>
-  </si>
-  <si>
-    <t>00400</t>
-  </si>
-  <si>
-    <t>00401</t>
-  </si>
-  <si>
-    <t>00402</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Идентификатор отдела</t>
   </si>
@@ -75,7 +57,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +67,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF24305E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +119,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,103 +425,87 @@
     <col min="1" max="2" width="42.77734375" customWidth="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/src/main/resources/excelTemplate/student_add_template.xlsx
+++ b/src/main/resources/excelTemplate/student_add_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C0D0D-297A-47B3-8775-C294E56B0A5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,7 +58,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,12 +68,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF24305E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,11 +116,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,23 +406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -439,73 +433,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
